--- a/Glosario y Tablas.xlsx
+++ b/Glosario y Tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-PYME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F6C9C3-DC9B-431D-A575-E37AF18397CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD59C55-821B-408A-8EC3-DC2C14F0A8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="690" windowWidth="2340" windowHeight="690" activeTab="2" xr2:uid="{A2BD93C9-6BA2-49C6-B98F-8B564DA89AA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{A2BD93C9-6BA2-49C6-B98F-8B564DA89AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Glosario" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5942" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5970" uniqueCount="1863">
   <si>
     <t>Variable</t>
   </si>
@@ -5608,6 +5608,27 @@
   </si>
   <si>
     <t>Fabricación de equipo de irradiación y equipo electrónico de uso médico y terapéutico</t>
+  </si>
+  <si>
+    <t>841300 - Regulación y facilitación de la actividad económica</t>
+  </si>
+  <si>
+    <t>Regulación y facilitación de la actividad económica</t>
+  </si>
+  <si>
+    <t>089200 - Extracción de turba</t>
+  </si>
+  <si>
+    <t>Extracción de turba</t>
+  </si>
+  <si>
+    <t>931102 - Gestión de salas de billar; Gestión de salas de bolos (Bowling)</t>
+  </si>
+  <si>
+    <t>Gestión de salas de billar; Gestión de salas de bolos (Bowling)</t>
+  </si>
+  <si>
+    <t>273100 - Fabricación de cables de fibra óptica</t>
   </si>
 </sst>
 </file>
@@ -6887,8 +6908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14880798-A793-4F30-B55C-6238BD823E90}">
   <dimension ref="A2:F233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233:F233"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11551,10 +11572,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE376D69-F122-4D15-8386-FD9B5041970D}">
-  <dimension ref="A2:I654"/>
+  <dimension ref="A2:I658"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30503,6 +30524,122 @@
         <v>633</v>
       </c>
     </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A655" s="10" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B655" s="10">
+        <v>841300</v>
+      </c>
+      <c r="C655" s="10" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D655" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="E655" s="10">
+        <v>841</v>
+      </c>
+      <c r="F655" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="G655" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H655" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="I655" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A656" s="13" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B656">
+        <v>89200</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D656" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E656" s="10">
+        <v>89</v>
+      </c>
+      <c r="F656" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G656" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H656" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I656" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A657" s="10" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B657" s="10">
+        <v>931102</v>
+      </c>
+      <c r="C657" s="10" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D657" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="E657" s="10">
+        <v>931</v>
+      </c>
+      <c r="F657" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="G657" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H657" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="I657" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A658" s="10" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B658" s="10">
+        <v>273200</v>
+      </c>
+      <c r="C658" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D658" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E658" s="10">
+        <v>273</v>
+      </c>
+      <c r="F658" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G658" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H658" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I658" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
